--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\Documents\Java\CSV\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0CF3A2A-7D50-435A-B79F-0FFF781CFB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D147447-8ACF-4B41-923E-08BD9556A330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
+    <workbookView xWindow="30840" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -60,12 +60,6 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -73,16 +67,34 @@
   </si>
   <si>
     <t>0.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Geese</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Ducks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,7 +123,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82442DF3-4A01-4D2A-8B40-B1C2C5111FAD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,74 +452,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1">
+        <v>1525</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="1">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="B4" s="1">
+        <v>490</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>62500</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\Documents\Java\CSV\Eco Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\Documents\Java\Repository\Ecology Forecast\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D147447-8ACF-4B41-923E-08BD9556A330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D43EB-F20F-4E8D-A6EF-612D672EB311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
+    <workbookView xWindow="1395" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -60,22 +60,7 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>Geese</t>
-  </si>
-  <si>
-    <t>1.4</t>
   </si>
   <si>
     <t>Ducks</t>
@@ -442,7 +427,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,11 +460,11 @@
       <c r="B2" s="1">
         <v>1525</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -492,11 +477,11 @@
       <c r="B3" s="1">
         <v>280</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -509,11 +494,11 @@
       <c r="B4" s="1">
         <v>490</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -521,16 +506,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>62500</v>
       </c>
       <c r="C5" s="1">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="1">
         <v>0.1</v>
@@ -538,16 +523,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
       <c r="C6" s="1">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="1">
         <v>0.05</v>

--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\Documents\Java\Repository\Ecology Forecast\Eco Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\git\Ecology_Forecast\Ecology Forecast\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D43EB-F20F-4E8D-A6EF-612D672EB311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D2249-2143-4505-BB7D-3B5322A0EAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
+    <workbookView xWindow="6345" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -57,13 +57,16 @@
     <t>Konik Horse</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>Geese</t>
   </si>
   <si>
-    <t>Ducks</t>
+    <t>AvgWeight</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>1 = 100 Animals</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82442DF3-4A01-4D2A-8B40-B1C2C5111FAD}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +439,7 @@
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +455,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -467,10 +476,13 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -484,10 +496,13 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -500,16 +515,19 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B5" s="1">
-        <v>62500</v>
+        <v>625</v>
       </c>
       <c r="C5" s="1">
         <v>0.3</v>
@@ -518,24 +536,13 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>330</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\git\Ecology_Forecast\Ecology Forecast\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D2249-2143-4505-BB7D-3B5322A0EAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1A8B9-0C4E-49A8-A949-D2C8227A4E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\git\Ecology_Forecast\Ecology Forecast\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1A8B9-0C4E-49A8-A949-D2C8227A4E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFE694-482C-49B0-B87E-07AB04D9727E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>1 = 100 Animals</t>
+  </si>
+  <si>
+    <t>CarryingCapacity</t>
   </si>
 </sst>
 </file>
@@ -427,19 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82442DF3-4A01-4D2A-8B40-B1C2C5111FAD}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,10 +463,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -481,8 +488,12 @@
       <c r="F2" s="1">
         <v>175</v>
       </c>
+      <c r="G2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,8 +512,12 @@
       <c r="F3" s="1">
         <v>625</v>
       </c>
+      <c r="G3" s="1">
+        <v>250</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -521,8 +536,12 @@
       <c r="F4" s="1">
         <v>375</v>
       </c>
+      <c r="G4" s="1">
+        <v>950</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -541,7 +560,10 @@
       <c r="F5" s="1">
         <v>330</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1">
+        <v>700</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\git\Ecology_Forecast\Ecology Forecast\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFE694-482C-49B0-B87E-07AB04D9727E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA048E6-95F7-46D1-9C9A-3662C793F4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="1">
         <v>625</v>

--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\git\Ecology_Forecast\Ecology Forecast\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA048E6-95F7-46D1-9C9A-3662C793F4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DB79A-6995-4261-9633-4EBB52CE2166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>1525</v>
       </c>
       <c r="C2" s="1">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
@@ -501,10 +501,10 @@
         <v>280</v>
       </c>
       <c r="C3" s="1">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="1">
         <v>0.95</v>
@@ -525,10 +525,10 @@
         <v>490</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="1">
         <v>0.8</v>
@@ -549,10 +549,10 @@
         <v>625</v>
       </c>
       <c r="C5" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>

--- a/Ecology Forecast/Eco Data/Ecodata.xlsx
+++ b/Ecology Forecast/Eco Data/Ecodata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shar\git\Ecology_Forecast\Ecology Forecast\Eco Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DB79A-6995-4261-9633-4EBB52CE2166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12959C18-3AD0-42BA-A924-E5CF806233D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
+    <workbookView xWindow="4050" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{4B0FB4C5-3377-41B2-A705-3FA45531E787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>CarryingCapacity</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Preylikelihood</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82442DF3-4A01-4D2A-8B40-B1C2C5111FAD}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +452,7 @@
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,10 +475,16 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -491,9 +506,14 @@
       <c r="G2" s="1">
         <v>2300</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -515,9 +535,14 @@
       <c r="G3" s="1">
         <v>250</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -539,9 +564,14 @@
       <c r="G4" s="1">
         <v>950</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -563,7 +593,11 @@
       <c r="G5" s="1">
         <v>700</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
